--- a/Team-Data/2015-16/3-29-2015-16.xlsx
+++ b/Team-Data/2015-16/3-29-2015-16.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,16 +733,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E2" t="n">
         <v>45</v>
       </c>
       <c r="F2" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G2" t="n">
-        <v>0.608</v>
+        <v>0.6</v>
       </c>
       <c r="H2" t="n">
         <v>48.3</v>
@@ -684,7 +751,7 @@
         <v>38.7</v>
       </c>
       <c r="J2" t="n">
-        <v>84.3</v>
+        <v>84.2</v>
       </c>
       <c r="K2" t="n">
         <v>0.46</v>
@@ -696,13 +763,13 @@
         <v>28.1</v>
       </c>
       <c r="N2" t="n">
-        <v>0.349</v>
+        <v>0.348</v>
       </c>
       <c r="O2" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="P2" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="Q2" t="n">
         <v>0.785</v>
@@ -732,22 +799,22 @@
         <v>5.1</v>
       </c>
       <c r="Z2" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="AA2" t="n">
-        <v>18.3</v>
+        <v>18.2</v>
       </c>
       <c r="AB2" t="n">
-        <v>103.1</v>
+        <v>102.9</v>
       </c>
       <c r="AC2" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="AD2" t="n">
         <v>1</v>
       </c>
       <c r="AE2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AF2" t="n">
         <v>7</v>
@@ -756,7 +823,7 @@
         <v>7</v>
       </c>
       <c r="AH2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AI2" t="n">
         <v>8</v>
@@ -765,7 +832,7 @@
         <v>17</v>
       </c>
       <c r="AK2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AL2" t="n">
         <v>6</v>
@@ -774,7 +841,7 @@
         <v>7</v>
       </c>
       <c r="AN2" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AO2" t="n">
         <v>28</v>
@@ -783,13 +850,13 @@
         <v>28</v>
       </c>
       <c r="AQ2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AR2" t="n">
         <v>30</v>
       </c>
       <c r="AS2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AT2" t="n">
         <v>25</v>
@@ -798,7 +865,7 @@
         <v>2</v>
       </c>
       <c r="AV2" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AW2" t="n">
         <v>3</v>
@@ -807,7 +874,7 @@
         <v>6</v>
       </c>
       <c r="AY2" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ2" t="n">
         <v>6</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-29-2015-16</t>
+          <t>2016-03-29</t>
         </is>
       </c>
     </row>
@@ -848,16 +915,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E3" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F3" t="n">
         <v>31</v>
       </c>
       <c r="G3" t="n">
-        <v>0.575</v>
+        <v>0.581</v>
       </c>
       <c r="H3" t="n">
         <v>48.3</v>
@@ -881,28 +948,28 @@
         <v>0.334</v>
       </c>
       <c r="O3" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="P3" t="n">
         <v>23</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.788</v>
+        <v>0.791</v>
       </c>
       <c r="R3" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="S3" t="n">
         <v>33.4</v>
       </c>
       <c r="T3" t="n">
-        <v>45.2</v>
+        <v>45.1</v>
       </c>
       <c r="U3" t="n">
-        <v>24</v>
+        <v>24.1</v>
       </c>
       <c r="V3" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="W3" t="n">
         <v>9.199999999999999</v>
@@ -920,22 +987,22 @@
         <v>20.8</v>
       </c>
       <c r="AB3" t="n">
-        <v>105.5</v>
+        <v>105.6</v>
       </c>
       <c r="AC3" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="AD3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE3" t="n">
         <v>8</v>
       </c>
-      <c r="AE3" t="n">
+      <c r="AF3" t="n">
         <v>9</v>
       </c>
-      <c r="AF3" t="n">
-        <v>10</v>
-      </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH3" t="n">
         <v>24</v>
@@ -950,10 +1017,10 @@
         <v>25</v>
       </c>
       <c r="AL3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AN3" t="n">
         <v>26</v>
@@ -962,7 +1029,7 @@
         <v>11</v>
       </c>
       <c r="AP3" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AQ3" t="n">
         <v>5</v>
@@ -986,16 +1053,16 @@
         <v>2</v>
       </c>
       <c r="AX3" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AY3" t="n">
         <v>22</v>
       </c>
       <c r="AZ3" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BA3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BB3" t="n">
         <v>5</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-29-2015-16</t>
+          <t>2016-03-29</t>
         </is>
       </c>
     </row>
@@ -1048,37 +1115,37 @@
         <v>38.3</v>
       </c>
       <c r="J4" t="n">
-        <v>83.40000000000001</v>
+        <v>83.5</v>
       </c>
       <c r="K4" t="n">
-        <v>0.46</v>
+        <v>0.459</v>
       </c>
       <c r="L4" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="M4" t="n">
         <v>17.7</v>
       </c>
       <c r="N4" t="n">
-        <v>0.358</v>
+        <v>0.356</v>
       </c>
       <c r="O4" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="P4" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.765</v>
+        <v>0.768</v>
       </c>
       <c r="R4" t="n">
         <v>10.1</v>
       </c>
       <c r="S4" t="n">
-        <v>32</v>
+        <v>32.1</v>
       </c>
       <c r="T4" t="n">
-        <v>42.1</v>
+        <v>42.2</v>
       </c>
       <c r="U4" t="n">
         <v>22.2</v>
@@ -1087,7 +1154,7 @@
         <v>14.9</v>
       </c>
       <c r="W4" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="X4" t="n">
         <v>3.9</v>
@@ -1099,16 +1166,16 @@
         <v>18</v>
       </c>
       <c r="AA4" t="n">
-        <v>18.5</v>
+        <v>18.4</v>
       </c>
       <c r="AB4" t="n">
-        <v>98.8</v>
+        <v>98.7</v>
       </c>
       <c r="AC4" t="n">
-        <v>-6.3</v>
+        <v>-6.1</v>
       </c>
       <c r="AD4" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="AE4" t="n">
         <v>27</v>
@@ -1123,7 +1190,7 @@
         <v>26</v>
       </c>
       <c r="AI4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AJ4" t="n">
         <v>21</v>
@@ -1138,7 +1205,7 @@
         <v>28</v>
       </c>
       <c r="AN4" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AO4" t="n">
         <v>27</v>
@@ -1150,13 +1217,13 @@
         <v>15</v>
       </c>
       <c r="AR4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AS4" t="n">
         <v>25</v>
       </c>
       <c r="AT4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AU4" t="n">
         <v>16</v>
@@ -1171,7 +1238,7 @@
         <v>25</v>
       </c>
       <c r="AY4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AZ4" t="n">
         <v>2</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-29-2015-16</t>
+          <t>2016-03-29</t>
         </is>
       </c>
     </row>
@@ -1215,25 +1282,25 @@
         <v>73</v>
       </c>
       <c r="E5" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F5" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G5" t="n">
-        <v>0.589</v>
+        <v>0.575</v>
       </c>
       <c r="H5" t="n">
         <v>48.5</v>
       </c>
       <c r="I5" t="n">
-        <v>37</v>
+        <v>36.9</v>
       </c>
       <c r="J5" t="n">
         <v>84.5</v>
       </c>
       <c r="K5" t="n">
-        <v>0.438</v>
+        <v>0.437</v>
       </c>
       <c r="L5" t="n">
         <v>10.6</v>
@@ -1245,61 +1312,61 @@
         <v>0.363</v>
       </c>
       <c r="O5" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="P5" t="n">
-        <v>23.6</v>
+        <v>23.8</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.788</v>
+        <v>0.786</v>
       </c>
       <c r="R5" t="n">
         <v>8.9</v>
       </c>
       <c r="S5" t="n">
-        <v>35.1</v>
+        <v>34.8</v>
       </c>
       <c r="T5" t="n">
-        <v>44</v>
+        <v>43.7</v>
       </c>
       <c r="U5" t="n">
-        <v>21.6</v>
+        <v>21.4</v>
       </c>
       <c r="V5" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="W5" t="n">
         <v>7.1</v>
       </c>
       <c r="X5" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Z5" t="n">
-        <v>18.2</v>
+        <v>18.4</v>
       </c>
       <c r="AA5" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="AB5" t="n">
-        <v>103.3</v>
+        <v>103.2</v>
       </c>
       <c r="AC5" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="AD5" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="AE5" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AF5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AH5" t="n">
         <v>6</v>
@@ -1311,34 +1378,34 @@
         <v>16</v>
       </c>
       <c r="AK5" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AL5" t="n">
         <v>2</v>
       </c>
       <c r="AM5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AN5" t="n">
         <v>6</v>
       </c>
       <c r="AO5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AP5" t="n">
         <v>11</v>
       </c>
       <c r="AQ5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AR5" t="n">
         <v>28</v>
       </c>
       <c r="AS5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT5" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AU5" t="n">
         <v>19</v>
@@ -1353,7 +1420,7 @@
         <v>12</v>
       </c>
       <c r="AY5" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AZ5" t="n">
         <v>4</v>
@@ -1362,7 +1429,7 @@
         <v>14</v>
       </c>
       <c r="BB5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BC5" t="n">
         <v>9</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-29-2015-16</t>
+          <t>2016-03-29</t>
         </is>
       </c>
     </row>
@@ -1394,16 +1461,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E6" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F6" t="n">
         <v>37</v>
       </c>
       <c r="G6" t="n">
-        <v>0.486</v>
+        <v>0.493</v>
       </c>
       <c r="H6" t="n">
         <v>48.6</v>
@@ -1412,46 +1479,46 @@
         <v>38.7</v>
       </c>
       <c r="J6" t="n">
-        <v>88.40000000000001</v>
+        <v>88.2</v>
       </c>
       <c r="K6" t="n">
-        <v>0.438</v>
+        <v>0.439</v>
       </c>
       <c r="L6" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="M6" t="n">
         <v>21.1</v>
       </c>
       <c r="N6" t="n">
-        <v>0.367</v>
+        <v>0.369</v>
       </c>
       <c r="O6" t="n">
         <v>16.3</v>
       </c>
       <c r="P6" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.784</v>
+        <v>0.782</v>
       </c>
       <c r="R6" t="n">
-        <v>11.3</v>
+        <v>11.2</v>
       </c>
       <c r="S6" t="n">
-        <v>35.5</v>
+        <v>35.6</v>
       </c>
       <c r="T6" t="n">
         <v>46.8</v>
       </c>
       <c r="U6" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="V6" t="n">
         <v>13.8</v>
       </c>
       <c r="W6" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="X6" t="n">
         <v>5.6</v>
@@ -1460,28 +1527,28 @@
         <v>5.8</v>
       </c>
       <c r="Z6" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="AA6" t="n">
         <v>18.7</v>
       </c>
       <c r="AB6" t="n">
-        <v>101.3</v>
+        <v>101.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>-1.9</v>
+        <v>-1.6</v>
       </c>
       <c r="AD6" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="AE6" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG6" t="n">
         <v>16</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>17</v>
       </c>
       <c r="AH6" t="n">
         <v>2</v>
@@ -1493,7 +1560,7 @@
         <v>2</v>
       </c>
       <c r="AK6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL6" t="n">
         <v>23</v>
@@ -1502,10 +1569,10 @@
         <v>24</v>
       </c>
       <c r="AN6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AP6" t="n">
         <v>26</v>
@@ -1514,16 +1581,16 @@
         <v>10</v>
       </c>
       <c r="AR6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AS6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT6" t="n">
         <v>2</v>
       </c>
       <c r="AU6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AV6" t="n">
         <v>12</v>
@@ -1544,10 +1611,10 @@
         <v>27</v>
       </c>
       <c r="BB6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BC6" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-29-2015-16</t>
+          <t>2016-03-29</t>
         </is>
       </c>
     </row>
@@ -1576,58 +1643,58 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E7" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F7" t="n">
         <v>21</v>
       </c>
       <c r="G7" t="n">
-        <v>0.708</v>
+        <v>0.712</v>
       </c>
       <c r="H7" t="n">
         <v>48.3</v>
       </c>
       <c r="I7" t="n">
-        <v>38.5</v>
+        <v>38.6</v>
       </c>
       <c r="J7" t="n">
-        <v>83.8</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="K7" t="n">
-        <v>0.46</v>
+        <v>0.461</v>
       </c>
       <c r="L7" t="n">
         <v>10.5</v>
       </c>
       <c r="M7" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="N7" t="n">
-        <v>0.357</v>
+        <v>0.358</v>
       </c>
       <c r="O7" t="n">
-        <v>16.5</v>
+        <v>16.2</v>
       </c>
       <c r="P7" t="n">
-        <v>22</v>
+        <v>21.8</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.749</v>
+        <v>0.745</v>
       </c>
       <c r="R7" t="n">
         <v>10.8</v>
       </c>
       <c r="S7" t="n">
-        <v>33.5</v>
+        <v>33.7</v>
       </c>
       <c r="T7" t="n">
-        <v>44.3</v>
+        <v>44.6</v>
       </c>
       <c r="U7" t="n">
-        <v>22.3</v>
+        <v>22.5</v>
       </c>
       <c r="V7" t="n">
         <v>13.5</v>
@@ -1642,19 +1709,19 @@
         <v>4.3</v>
       </c>
       <c r="Z7" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="AA7" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="AB7" t="n">
-        <v>104</v>
+        <v>103.9</v>
       </c>
       <c r="AC7" t="n">
-        <v>5.7</v>
+        <v>6.1</v>
       </c>
       <c r="AD7" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="AE7" t="n">
         <v>3</v>
@@ -1672,58 +1739,58 @@
         <v>10</v>
       </c>
       <c r="AJ7" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AK7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>4</v>
+      </c>
+      <c r="AN7" t="n">
         <v>10</v>
       </c>
-      <c r="AL7" t="n">
-        <v>4</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>3</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>11</v>
-      </c>
       <c r="AO7" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AP7" t="n">
         <v>24</v>
       </c>
       <c r="AQ7" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AR7" t="n">
         <v>10</v>
       </c>
       <c r="AS7" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AT7" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AU7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AV7" t="n">
         <v>9</v>
       </c>
       <c r="AW7" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AX7" t="n">
         <v>29</v>
       </c>
       <c r="AY7" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AZ7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BB7" t="n">
         <v>9</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-29-2015-16</t>
+          <t>2016-03-29</t>
         </is>
       </c>
     </row>
@@ -1758,16 +1825,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E8" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F8" t="n">
         <v>38</v>
       </c>
       <c r="G8" t="n">
-        <v>0.479</v>
+        <v>0.486</v>
       </c>
       <c r="H8" t="n">
         <v>48.9</v>
@@ -1785,25 +1852,25 @@
         <v>9.800000000000001</v>
       </c>
       <c r="M8" t="n">
-        <v>28.3</v>
+        <v>28.2</v>
       </c>
       <c r="N8" t="n">
-        <v>0.345</v>
+        <v>0.346</v>
       </c>
       <c r="O8" t="n">
         <v>17.8</v>
       </c>
       <c r="P8" t="n">
-        <v>22.2</v>
+        <v>22.4</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.799</v>
+        <v>0.797</v>
       </c>
       <c r="R8" t="n">
-        <v>9.1</v>
+        <v>9</v>
       </c>
       <c r="S8" t="n">
-        <v>33.9</v>
+        <v>34</v>
       </c>
       <c r="T8" t="n">
         <v>43</v>
@@ -1812,34 +1879,34 @@
         <v>22.5</v>
       </c>
       <c r="V8" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="W8" t="n">
         <v>6.8</v>
       </c>
       <c r="X8" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="AB8" t="n">
-        <v>103.1</v>
+        <v>103.2</v>
       </c>
       <c r="AC8" t="n">
-        <v>-1</v>
+        <v>-0.7</v>
       </c>
       <c r="AD8" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AE8" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF8" t="n">
         <v>18</v>
@@ -1857,7 +1924,7 @@
         <v>14</v>
       </c>
       <c r="AK8" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL8" t="n">
         <v>7</v>
@@ -1866,13 +1933,13 @@
         <v>6</v>
       </c>
       <c r="AN8" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO8" t="n">
         <v>12</v>
       </c>
       <c r="AP8" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AQ8" t="n">
         <v>3</v>
@@ -1881,13 +1948,13 @@
         <v>26</v>
       </c>
       <c r="AS8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AT8" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AV8" t="n">
         <v>2</v>
@@ -1899,7 +1966,7 @@
         <v>28</v>
       </c>
       <c r="AY8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ8" t="n">
         <v>8</v>
@@ -1908,10 +1975,10 @@
         <v>7</v>
       </c>
       <c r="BB8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BC8" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-29-2015-16</t>
+          <t>2016-03-29</t>
         </is>
       </c>
     </row>
@@ -1940,16 +2007,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E9" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F9" t="n">
         <v>44</v>
       </c>
       <c r="G9" t="n">
-        <v>0.405</v>
+        <v>0.413</v>
       </c>
       <c r="H9" t="n">
         <v>48.4</v>
@@ -1961,31 +2028,31 @@
         <v>85.40000000000001</v>
       </c>
       <c r="K9" t="n">
-        <v>0.441</v>
+        <v>0.442</v>
       </c>
       <c r="L9" t="n">
         <v>7.9</v>
       </c>
       <c r="M9" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="N9" t="n">
-        <v>0.337</v>
+        <v>0.339</v>
       </c>
       <c r="O9" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="P9" t="n">
-        <v>24.4</v>
+        <v>24.3</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.769</v>
+        <v>0.768</v>
       </c>
       <c r="R9" t="n">
         <v>11.5</v>
       </c>
       <c r="S9" t="n">
-        <v>33</v>
+        <v>33.1</v>
       </c>
       <c r="T9" t="n">
         <v>44.6</v>
@@ -1994,7 +2061,7 @@
         <v>22.5</v>
       </c>
       <c r="V9" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="W9" t="n">
         <v>7.4</v>
@@ -2015,22 +2082,22 @@
         <v>102.1</v>
       </c>
       <c r="AC9" t="n">
-        <v>-3</v>
+        <v>-2.7</v>
       </c>
       <c r="AD9" t="n">
         <v>1</v>
       </c>
       <c r="AE9" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF9" t="n">
         <v>21</v>
       </c>
-      <c r="AF9" t="n">
-        <v>22</v>
-      </c>
       <c r="AG9" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AH9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI9" t="n">
         <v>20</v>
@@ -2039,10 +2106,10 @@
         <v>11</v>
       </c>
       <c r="AK9" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL9" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM9" t="n">
         <v>17</v>
@@ -2060,7 +2127,7 @@
         <v>14</v>
       </c>
       <c r="AR9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AS9" t="n">
         <v>19</v>
@@ -2072,13 +2139,13 @@
         <v>14</v>
       </c>
       <c r="AV9" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AW9" t="n">
         <v>20</v>
       </c>
       <c r="AX9" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AY9" t="n">
         <v>30</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-29-2015-16</t>
+          <t>2016-03-29</t>
         </is>
       </c>
     </row>
@@ -2122,46 +2189,46 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E10" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F10" t="n">
         <v>35</v>
       </c>
       <c r="G10" t="n">
-        <v>0.521</v>
+        <v>0.527</v>
       </c>
       <c r="H10" t="n">
         <v>48.5</v>
       </c>
       <c r="I10" t="n">
-        <v>38.4</v>
+        <v>38.3</v>
       </c>
       <c r="J10" t="n">
-        <v>87</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="K10" t="n">
-        <v>0.442</v>
+        <v>0.441</v>
       </c>
       <c r="L10" t="n">
         <v>8.9</v>
       </c>
       <c r="M10" t="n">
-        <v>26.2</v>
+        <v>26.3</v>
       </c>
       <c r="N10" t="n">
-        <v>0.338</v>
+        <v>0.341</v>
       </c>
       <c r="O10" t="n">
-        <v>16.6</v>
+        <v>16.8</v>
       </c>
       <c r="P10" t="n">
-        <v>25.1</v>
+        <v>25.3</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.661</v>
+        <v>0.662</v>
       </c>
       <c r="R10" t="n">
         <v>12.5</v>
@@ -2179,10 +2246,10 @@
         <v>13.6</v>
       </c>
       <c r="W10" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="X10" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="Y10" t="n">
         <v>4.3</v>
@@ -2191,19 +2258,19 @@
         <v>19.3</v>
       </c>
       <c r="AA10" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="AB10" t="n">
-        <v>102.3</v>
+        <v>102.4</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="AD10" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AE10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF10" t="n">
         <v>13</v>
@@ -2212,19 +2279,19 @@
         <v>13</v>
       </c>
       <c r="AH10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AI10" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AJ10" t="n">
         <v>4</v>
       </c>
       <c r="AK10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM10" t="n">
         <v>11</v>
@@ -2257,13 +2324,13 @@
         <v>10</v>
       </c>
       <c r="AW10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AX10" t="n">
         <v>30</v>
       </c>
       <c r="AY10" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AZ10" t="n">
         <v>7</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-29-2015-16</t>
+          <t>2016-03-29</t>
         </is>
       </c>
     </row>
@@ -2322,43 +2389,43 @@
         <v>42.6</v>
       </c>
       <c r="J11" t="n">
-        <v>87.3</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K11" t="n">
         <v>0.488</v>
       </c>
       <c r="L11" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="M11" t="n">
-        <v>31.3</v>
+        <v>31.4</v>
       </c>
       <c r="N11" t="n">
-        <v>0.418</v>
+        <v>0.416</v>
       </c>
       <c r="O11" t="n">
-        <v>17.1</v>
+        <v>17.2</v>
       </c>
       <c r="P11" t="n">
         <v>22.6</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.757</v>
+        <v>0.761</v>
       </c>
       <c r="R11" t="n">
-        <v>9.9</v>
+        <v>10.1</v>
       </c>
       <c r="S11" t="n">
-        <v>36.2</v>
+        <v>36</v>
       </c>
       <c r="T11" t="n">
-        <v>46.1</v>
+        <v>46.2</v>
       </c>
       <c r="U11" t="n">
         <v>29.2</v>
       </c>
       <c r="V11" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="W11" t="n">
         <v>8.5</v>
@@ -2370,19 +2437,19 @@
         <v>4.2</v>
       </c>
       <c r="Z11" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AA11" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="AB11" t="n">
-        <v>115.3</v>
+        <v>115.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="AD11" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="AE11" t="n">
         <v>1</v>
@@ -2415,16 +2482,16 @@
         <v>1</v>
       </c>
       <c r="AO11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP11" t="n">
         <v>20</v>
       </c>
-      <c r="AP11" t="n">
+      <c r="AQ11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AR11" t="n">
         <v>19</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>18</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>21</v>
       </c>
       <c r="AS11" t="n">
         <v>1</v>
@@ -2436,22 +2503,22 @@
         <v>1</v>
       </c>
       <c r="AV11" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AW11" t="n">
         <v>8</v>
       </c>
       <c r="AX11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY11" t="n">
         <v>4</v>
       </c>
       <c r="AZ11" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BA11" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BB11" t="n">
         <v>1</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-29-2015-16</t>
+          <t>2016-03-29</t>
         </is>
       </c>
     </row>
@@ -2489,94 +2556,94 @@
         <v>74</v>
       </c>
       <c r="E12" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F12" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5</v>
+        <v>0.486</v>
       </c>
       <c r="H12" t="n">
         <v>48.4</v>
       </c>
       <c r="I12" t="n">
-        <v>37.4</v>
+        <v>37.3</v>
       </c>
       <c r="J12" t="n">
-        <v>82.90000000000001</v>
+        <v>83</v>
       </c>
       <c r="K12" t="n">
-        <v>0.451</v>
+        <v>0.449</v>
       </c>
       <c r="L12" t="n">
         <v>10.6</v>
       </c>
       <c r="M12" t="n">
-        <v>30.7</v>
+        <v>30.8</v>
       </c>
       <c r="N12" t="n">
-        <v>0.346</v>
+        <v>0.344</v>
       </c>
       <c r="O12" t="n">
         <v>20.8</v>
       </c>
       <c r="P12" t="n">
-        <v>30.1</v>
+        <v>29.8</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.6919999999999999</v>
+        <v>0.696</v>
       </c>
       <c r="R12" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="S12" t="n">
-        <v>31.9</v>
+        <v>31.7</v>
       </c>
       <c r="T12" t="n">
-        <v>43</v>
+        <v>42.9</v>
       </c>
       <c r="U12" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="V12" t="n">
         <v>16.1</v>
       </c>
       <c r="W12" t="n">
-        <v>10</v>
+        <v>10.1</v>
       </c>
       <c r="X12" t="n">
         <v>5.1</v>
       </c>
       <c r="Y12" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>105.9</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>-0.9</v>
+      </c>
+      <c r="AD12" t="n">
         <v>5</v>
       </c>
-      <c r="Z12" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>106.2</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>1</v>
-      </c>
       <c r="AE12" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AF12" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AG12" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AH12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI12" t="n">
         <v>22</v>
@@ -2594,7 +2661,7 @@
         <v>2</v>
       </c>
       <c r="AN12" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AO12" t="n">
         <v>3</v>
@@ -2603,16 +2670,16 @@
         <v>1</v>
       </c>
       <c r="AQ12" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AR12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AS12" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AT12" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AU12" t="n">
         <v>17</v>
@@ -2627,10 +2694,10 @@
         <v>14</v>
       </c>
       <c r="AY12" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AZ12" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BA12" t="n">
         <v>2</v>
@@ -2639,7 +2706,7 @@
         <v>4</v>
       </c>
       <c r="BC12" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-29-2015-16</t>
+          <t>2016-03-29</t>
         </is>
       </c>
     </row>
@@ -2683,70 +2750,70 @@
         <v>48.5</v>
       </c>
       <c r="I13" t="n">
-        <v>38.2</v>
+        <v>38.1</v>
       </c>
       <c r="J13" t="n">
         <v>85.3</v>
       </c>
       <c r="K13" t="n">
-        <v>0.447</v>
+        <v>0.446</v>
       </c>
       <c r="L13" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="M13" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="N13" t="n">
-        <v>0.346</v>
+        <v>0.349</v>
       </c>
       <c r="O13" t="n">
-        <v>17.5</v>
+        <v>17.6</v>
       </c>
       <c r="P13" t="n">
-        <v>23</v>
+        <v>23.2</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.76</v>
+        <v>0.761</v>
       </c>
       <c r="R13" t="n">
-        <v>10.4</v>
+        <v>10.3</v>
       </c>
       <c r="S13" t="n">
         <v>33.7</v>
       </c>
       <c r="T13" t="n">
-        <v>44.1</v>
+        <v>44</v>
       </c>
       <c r="U13" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="V13" t="n">
         <v>14.8</v>
       </c>
       <c r="W13" t="n">
-        <v>9</v>
+        <v>9.1</v>
       </c>
       <c r="X13" t="n">
         <v>4.9</v>
       </c>
       <c r="Y13" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Z13" t="n">
-        <v>19.9</v>
+        <v>20.1</v>
       </c>
       <c r="AA13" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AB13" t="n">
         <v>101.8</v>
       </c>
       <c r="AC13" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="AE13" t="n">
         <v>12</v>
@@ -2761,13 +2828,13 @@
         <v>5</v>
       </c>
       <c r="AI13" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AJ13" t="n">
         <v>12</v>
       </c>
       <c r="AK13" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AL13" t="n">
         <v>18</v>
@@ -2776,25 +2843,25 @@
         <v>20</v>
       </c>
       <c r="AN13" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AO13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP13" t="n">
         <v>14</v>
       </c>
-      <c r="AP13" t="n">
-        <v>16</v>
-      </c>
       <c r="AQ13" t="n">
+        <v>18</v>
+      </c>
+      <c r="AR13" t="n">
         <v>17</v>
       </c>
-      <c r="AR13" t="n">
-        <v>15</v>
-      </c>
       <c r="AS13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AT13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AU13" t="n">
         <v>24</v>
@@ -2821,7 +2888,7 @@
         <v>19</v>
       </c>
       <c r="BC13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-29-2015-16</t>
+          <t>2016-03-29</t>
         </is>
       </c>
     </row>
@@ -2850,16 +2917,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E14" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F14" t="n">
         <v>27</v>
       </c>
       <c r="G14" t="n">
-        <v>0.625</v>
+        <v>0.63</v>
       </c>
       <c r="H14" t="n">
         <v>48.3</v>
@@ -2871,19 +2938,19 @@
         <v>82.5</v>
       </c>
       <c r="K14" t="n">
-        <v>0.461</v>
+        <v>0.462</v>
       </c>
       <c r="L14" t="n">
         <v>9.699999999999999</v>
       </c>
       <c r="M14" t="n">
-        <v>27</v>
+        <v>26.9</v>
       </c>
       <c r="N14" t="n">
-        <v>0.361</v>
+        <v>0.36</v>
       </c>
       <c r="O14" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="P14" t="n">
         <v>26.7</v>
@@ -2895,7 +2962,7 @@
         <v>9</v>
       </c>
       <c r="S14" t="n">
-        <v>33.1</v>
+        <v>33.2</v>
       </c>
       <c r="T14" t="n">
         <v>42.1</v>
@@ -2904,7 +2971,7 @@
         <v>22.7</v>
       </c>
       <c r="V14" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="W14" t="n">
         <v>8.5</v>
@@ -2919,16 +2986,16 @@
         <v>21.7</v>
       </c>
       <c r="AA14" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="AB14" t="n">
-        <v>104.4</v>
+        <v>104.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="AD14" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="AE14" t="n">
         <v>6</v>
@@ -2943,7 +3010,7 @@
         <v>13</v>
       </c>
       <c r="AI14" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AJ14" t="n">
         <v>25</v>
@@ -2958,7 +3025,7 @@
         <v>8</v>
       </c>
       <c r="AN14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO14" t="n">
         <v>10</v>
@@ -2967,7 +3034,7 @@
         <v>4</v>
       </c>
       <c r="AQ14" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AR14" t="n">
         <v>27</v>
@@ -2976,10 +3043,10 @@
         <v>18</v>
       </c>
       <c r="AT14" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AU14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AV14" t="n">
         <v>3</v>
@@ -2988,7 +3055,7 @@
         <v>9</v>
       </c>
       <c r="AX14" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AY14" t="n">
         <v>1</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-29-2015-16</t>
+          <t>2016-03-29</t>
         </is>
       </c>
     </row>
@@ -3032,16 +3099,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
       </c>
       <c r="F15" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G15" t="n">
-        <v>0.205</v>
+        <v>0.203</v>
       </c>
       <c r="H15" t="n">
         <v>48.1</v>
@@ -3050,28 +3117,28 @@
         <v>35.3</v>
       </c>
       <c r="J15" t="n">
-        <v>84.5</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="K15" t="n">
         <v>0.417</v>
       </c>
       <c r="L15" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="M15" t="n">
-        <v>24.6</v>
+        <v>24.7</v>
       </c>
       <c r="N15" t="n">
-        <v>0.319</v>
+        <v>0.318</v>
       </c>
       <c r="O15" t="n">
-        <v>19.1</v>
+        <v>19.3</v>
       </c>
       <c r="P15" t="n">
-        <v>24.7</v>
+        <v>24.8</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.774</v>
+        <v>0.777</v>
       </c>
       <c r="R15" t="n">
         <v>10.6</v>
@@ -3080,7 +3147,7 @@
         <v>32.2</v>
       </c>
       <c r="T15" t="n">
-        <v>42.7</v>
+        <v>42.8</v>
       </c>
       <c r="U15" t="n">
         <v>18.1</v>
@@ -3089,7 +3156,7 @@
         <v>13.7</v>
       </c>
       <c r="W15" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="X15" t="n">
         <v>4.2</v>
@@ -3098,19 +3165,19 @@
         <v>5.6</v>
       </c>
       <c r="Z15" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="AA15" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="AB15" t="n">
-        <v>97.5</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="AC15" t="n">
-        <v>-9.5</v>
+        <v>-9.300000000000001</v>
       </c>
       <c r="AD15" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AE15" t="n">
         <v>29</v>
@@ -3134,7 +3201,7 @@
         <v>30</v>
       </c>
       <c r="AL15" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AM15" t="n">
         <v>13</v>
@@ -3158,7 +3225,7 @@
         <v>24</v>
       </c>
       <c r="AT15" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AU15" t="n">
         <v>30</v>
@@ -3170,13 +3237,13 @@
         <v>22</v>
       </c>
       <c r="AX15" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AY15" t="n">
         <v>27</v>
       </c>
       <c r="AZ15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA15" t="n">
         <v>25</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-29-2015-16</t>
+          <t>2016-03-29</t>
         </is>
       </c>
     </row>
@@ -3214,40 +3281,40 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E16" t="n">
         <v>41</v>
       </c>
       <c r="F16" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5620000000000001</v>
+        <v>0.554</v>
       </c>
       <c r="H16" t="n">
         <v>48.4</v>
       </c>
       <c r="I16" t="n">
-        <v>36.8</v>
+        <v>36.6</v>
       </c>
       <c r="J16" t="n">
         <v>82.8</v>
       </c>
       <c r="K16" t="n">
-        <v>0.444</v>
+        <v>0.442</v>
       </c>
       <c r="L16" t="n">
         <v>6.1</v>
       </c>
       <c r="M16" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="N16" t="n">
-        <v>0.334</v>
+        <v>0.331</v>
       </c>
       <c r="O16" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="P16" t="n">
         <v>25.1</v>
@@ -3259,16 +3326,16 @@
         <v>10.8</v>
       </c>
       <c r="S16" t="n">
-        <v>30.7</v>
+        <v>30.6</v>
       </c>
       <c r="T16" t="n">
         <v>41.4</v>
       </c>
       <c r="U16" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="V16" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="W16" t="n">
         <v>8.9</v>
@@ -3277,7 +3344,7 @@
         <v>4.4</v>
       </c>
       <c r="Y16" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="Z16" t="n">
         <v>21.9</v>
@@ -3286,13 +3353,13 @@
         <v>21.3</v>
       </c>
       <c r="AB16" t="n">
-        <v>99.40000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="AC16" t="n">
-        <v>-1.3</v>
+        <v>-1.6</v>
       </c>
       <c r="AD16" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AE16" t="n">
         <v>11</v>
@@ -3304,7 +3371,7 @@
         <v>11</v>
       </c>
       <c r="AH16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI16" t="n">
         <v>26</v>
@@ -3322,16 +3389,16 @@
         <v>26</v>
       </c>
       <c r="AN16" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AO16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AP16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AQ16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AR16" t="n">
         <v>11</v>
@@ -3343,7 +3410,7 @@
         <v>28</v>
       </c>
       <c r="AU16" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AV16" t="n">
         <v>8</v>
@@ -3355,10 +3422,10 @@
         <v>20</v>
       </c>
       <c r="AY16" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AZ16" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BA16" t="n">
         <v>9</v>
@@ -3367,7 +3434,7 @@
         <v>24</v>
       </c>
       <c r="BC16" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-29-2015-16</t>
+          <t>2016-03-29</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E17" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F17" t="n">
         <v>30</v>
       </c>
       <c r="G17" t="n">
-        <v>0.583</v>
+        <v>0.589</v>
       </c>
       <c r="H17" t="n">
         <v>48.3</v>
@@ -3414,10 +3481,10 @@
         <v>38.1</v>
       </c>
       <c r="J17" t="n">
-        <v>81.2</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="K17" t="n">
-        <v>0.469</v>
+        <v>0.47</v>
       </c>
       <c r="L17" t="n">
         <v>6</v>
@@ -3426,34 +3493,34 @@
         <v>18</v>
       </c>
       <c r="N17" t="n">
-        <v>0.332</v>
+        <v>0.336</v>
       </c>
       <c r="O17" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="P17" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.743</v>
+        <v>0.745</v>
       </c>
       <c r="R17" t="n">
-        <v>9.699999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="S17" t="n">
-        <v>34.4</v>
+        <v>34.5</v>
       </c>
       <c r="T17" t="n">
         <v>44.1</v>
       </c>
       <c r="U17" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="V17" t="n">
         <v>14.2</v>
       </c>
       <c r="W17" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="X17" t="n">
         <v>6.6</v>
@@ -3462,7 +3529,7 @@
         <v>4.1</v>
       </c>
       <c r="Z17" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="AA17" t="n">
         <v>19.9</v>
@@ -3471,19 +3538,19 @@
         <v>99.59999999999999</v>
       </c>
       <c r="AC17" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="AE17" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF17" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG17" t="n">
         <v>8</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>9</v>
       </c>
       <c r="AH17" t="n">
         <v>13</v>
@@ -3492,7 +3559,7 @@
         <v>17</v>
       </c>
       <c r="AJ17" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AK17" t="n">
         <v>4</v>
@@ -3504,7 +3571,7 @@
         <v>27</v>
       </c>
       <c r="AN17" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AO17" t="n">
         <v>18</v>
@@ -3513,7 +3580,7 @@
         <v>12</v>
       </c>
       <c r="AQ17" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AR17" t="n">
         <v>22</v>
@@ -3522,13 +3589,13 @@
         <v>6</v>
       </c>
       <c r="AT17" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AU17" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AV17" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AW17" t="n">
         <v>26</v>
@@ -3549,7 +3616,7 @@
         <v>23</v>
       </c>
       <c r="BC17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-29-2015-16</t>
+          <t>2016-03-29</t>
         </is>
       </c>
     </row>
@@ -3578,61 +3645,61 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E18" t="n">
         <v>30</v>
       </c>
       <c r="F18" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G18" t="n">
-        <v>0.411</v>
+        <v>0.405</v>
       </c>
       <c r="H18" t="n">
         <v>48.3</v>
       </c>
       <c r="I18" t="n">
-        <v>38.3</v>
+        <v>38.2</v>
       </c>
       <c r="J18" t="n">
-        <v>81.90000000000001</v>
+        <v>82</v>
       </c>
       <c r="K18" t="n">
-        <v>0.468</v>
+        <v>0.466</v>
       </c>
       <c r="L18" t="n">
         <v>5.4</v>
       </c>
       <c r="M18" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="N18" t="n">
-        <v>0.347</v>
+        <v>0.35</v>
       </c>
       <c r="O18" t="n">
-        <v>16.9</v>
+        <v>17.1</v>
       </c>
       <c r="P18" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.746</v>
+        <v>0.749</v>
       </c>
       <c r="R18" t="n">
-        <v>10.4</v>
+        <v>10.5</v>
       </c>
       <c r="S18" t="n">
-        <v>31.1</v>
+        <v>31</v>
       </c>
       <c r="T18" t="n">
-        <v>41.5</v>
+        <v>41.6</v>
       </c>
       <c r="U18" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="V18" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="W18" t="n">
         <v>8.1</v>
@@ -3644,19 +3711,19 @@
         <v>5.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AA18" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="AB18" t="n">
         <v>98.90000000000001</v>
       </c>
       <c r="AC18" t="n">
-        <v>-3.7</v>
+        <v>-4</v>
       </c>
       <c r="AD18" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AE18" t="n">
         <v>21</v>
@@ -3665,13 +3732,13 @@
         <v>21</v>
       </c>
       <c r="AG18" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH18" t="n">
         <v>16</v>
       </c>
       <c r="AI18" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ18" t="n">
         <v>26</v>
@@ -3686,7 +3753,7 @@
         <v>30</v>
       </c>
       <c r="AN18" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AO18" t="n">
         <v>21</v>
@@ -3695,7 +3762,7 @@
         <v>18</v>
       </c>
       <c r="AQ18" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AR18" t="n">
         <v>14</v>
@@ -3707,22 +3774,22 @@
         <v>27</v>
       </c>
       <c r="AU18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV18" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AW18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AX18" t="n">
         <v>7</v>
       </c>
       <c r="AY18" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AZ18" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BA18" t="n">
         <v>21</v>
@@ -3731,7 +3798,7 @@
         <v>25</v>
       </c>
       <c r="BC18" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-29-2015-16</t>
+          <t>2016-03-29</t>
         </is>
       </c>
     </row>
@@ -3760,16 +3827,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E19" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F19" t="n">
         <v>49</v>
       </c>
       <c r="G19" t="n">
-        <v>0.329</v>
+        <v>0.338</v>
       </c>
       <c r="H19" t="n">
         <v>48.5</v>
@@ -3790,16 +3857,16 @@
         <v>15.9</v>
       </c>
       <c r="N19" t="n">
-        <v>0.334</v>
+        <v>0.332</v>
       </c>
       <c r="O19" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="P19" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.795</v>
+        <v>0.796</v>
       </c>
       <c r="R19" t="n">
         <v>10.1</v>
@@ -3811,10 +3878,10 @@
         <v>41.6</v>
       </c>
       <c r="U19" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="V19" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="W19" t="n">
         <v>7.8</v>
@@ -3826,19 +3893,19 @@
         <v>5.3</v>
       </c>
       <c r="Z19" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="AA19" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="AB19" t="n">
-        <v>102.2</v>
+        <v>102.3</v>
       </c>
       <c r="AC19" t="n">
-        <v>-3.8</v>
+        <v>-3.7</v>
       </c>
       <c r="AD19" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AE19" t="n">
         <v>26</v>
@@ -3850,13 +3917,13 @@
         <v>26</v>
       </c>
       <c r="AH19" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AI19" t="n">
         <v>21</v>
       </c>
       <c r="AJ19" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AK19" t="n">
         <v>7</v>
@@ -3868,7 +3935,7 @@
         <v>29</v>
       </c>
       <c r="AN19" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AO19" t="n">
         <v>1</v>
@@ -3880,7 +3947,7 @@
         <v>4</v>
       </c>
       <c r="AR19" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AS19" t="n">
         <v>28</v>
@@ -3892,19 +3959,19 @@
         <v>8</v>
       </c>
       <c r="AV19" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AW19" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AX19" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AY19" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AZ19" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BA19" t="n">
         <v>5</v>
@@ -3913,7 +3980,7 @@
         <v>17</v>
       </c>
       <c r="BC19" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-29-2015-16</t>
+          <t>2016-03-29</t>
         </is>
       </c>
     </row>
@@ -3942,61 +4009,61 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E20" t="n">
         <v>27</v>
       </c>
       <c r="F20" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G20" t="n">
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
       <c r="H20" t="n">
         <v>48.3</v>
       </c>
       <c r="I20" t="n">
-        <v>38.5</v>
+        <v>38.4</v>
       </c>
       <c r="J20" t="n">
         <v>86.09999999999999</v>
       </c>
       <c r="K20" t="n">
-        <v>0.447</v>
+        <v>0.446</v>
       </c>
       <c r="L20" t="n">
         <v>8.5</v>
       </c>
       <c r="M20" t="n">
-        <v>23.8</v>
+        <v>23.9</v>
       </c>
       <c r="N20" t="n">
-        <v>0.355</v>
+        <v>0.354</v>
       </c>
       <c r="O20" t="n">
-        <v>17.6</v>
+        <v>17.5</v>
       </c>
       <c r="P20" t="n">
         <v>22.5</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.781</v>
+        <v>0.778</v>
       </c>
       <c r="R20" t="n">
-        <v>9.5</v>
+        <v>9.4</v>
       </c>
       <c r="S20" t="n">
-        <v>33.4</v>
+        <v>33.3</v>
       </c>
       <c r="T20" t="n">
-        <v>42.9</v>
+        <v>42.7</v>
       </c>
       <c r="U20" t="n">
         <v>21.7</v>
       </c>
       <c r="V20" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="W20" t="n">
         <v>7.8</v>
@@ -4008,25 +4075,25 @@
         <v>5</v>
       </c>
       <c r="Z20" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="AA20" t="n">
-        <v>19.7</v>
+        <v>19.9</v>
       </c>
       <c r="AB20" t="n">
-        <v>103</v>
+        <v>102.7</v>
       </c>
       <c r="AC20" t="n">
-        <v>-3.1</v>
+        <v>-3.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="AE20" t="n">
         <v>25</v>
       </c>
       <c r="AF20" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AG20" t="n">
         <v>25</v>
@@ -4035,16 +4102,16 @@
         <v>22</v>
       </c>
       <c r="AI20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ20" t="n">
         <v>8</v>
       </c>
       <c r="AK20" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AM20" t="n">
         <v>15</v>
@@ -4053,31 +4120,31 @@
         <v>13</v>
       </c>
       <c r="AO20" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP20" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ20" t="n">
         <v>12</v>
       </c>
       <c r="AR20" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AS20" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AT20" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AU20" t="n">
         <v>18</v>
       </c>
       <c r="AV20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW20" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AX20" t="n">
         <v>21</v>
@@ -4086,16 +4153,16 @@
         <v>14</v>
       </c>
       <c r="AZ20" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BA20" t="n">
         <v>20</v>
       </c>
       <c r="BB20" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BC20" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-29-2015-16</t>
+          <t>2016-03-29</t>
         </is>
       </c>
     </row>
@@ -4124,25 +4191,25 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E21" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F21" t="n">
         <v>45</v>
       </c>
       <c r="G21" t="n">
-        <v>0.392</v>
+        <v>0.4</v>
       </c>
       <c r="H21" t="n">
         <v>48.3</v>
       </c>
       <c r="I21" t="n">
-        <v>36.8</v>
+        <v>36.9</v>
       </c>
       <c r="J21" t="n">
-        <v>83.8</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="K21" t="n">
         <v>0.439</v>
@@ -4154,34 +4221,34 @@
         <v>21.4</v>
       </c>
       <c r="N21" t="n">
-        <v>0.344</v>
+        <v>0.345</v>
       </c>
       <c r="O21" t="n">
-        <v>17.4</v>
+        <v>17.5</v>
       </c>
       <c r="P21" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.805</v>
+        <v>0.806</v>
       </c>
       <c r="R21" t="n">
-        <v>10.2</v>
+        <v>10.3</v>
       </c>
       <c r="S21" t="n">
         <v>33.9</v>
       </c>
       <c r="T21" t="n">
-        <v>44.1</v>
+        <v>44.2</v>
       </c>
       <c r="U21" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="V21" t="n">
         <v>13.3</v>
       </c>
       <c r="W21" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="X21" t="n">
         <v>5.6</v>
@@ -4190,31 +4257,31 @@
         <v>4.3</v>
       </c>
       <c r="Z21" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="AA21" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="AB21" t="n">
-        <v>98.3</v>
+        <v>98.7</v>
       </c>
       <c r="AC21" t="n">
-        <v>-3.1</v>
+        <v>-2.8</v>
       </c>
       <c r="AD21" t="n">
         <v>1</v>
       </c>
       <c r="AE21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF21" t="n">
         <v>23</v>
       </c>
-      <c r="AF21" t="n">
-        <v>25</v>
-      </c>
       <c r="AG21" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AH21" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AI21" t="n">
         <v>25</v>
@@ -4232,10 +4299,10 @@
         <v>23</v>
       </c>
       <c r="AN21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO21" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AP21" t="n">
         <v>25</v>
@@ -4244,13 +4311,13 @@
         <v>1</v>
       </c>
       <c r="AR21" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AS21" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AT21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AU21" t="n">
         <v>26</v>
@@ -4262,7 +4329,7 @@
         <v>30</v>
       </c>
       <c r="AX21" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY21" t="n">
         <v>5</v>
@@ -4277,7 +4344,7 @@
         <v>27</v>
       </c>
       <c r="BC21" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-29-2015-16</t>
+          <t>2016-03-29</t>
         </is>
       </c>
     </row>
@@ -4309,25 +4376,25 @@
         <v>74</v>
       </c>
       <c r="E22" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F22" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6889999999999999</v>
+        <v>0.703</v>
       </c>
       <c r="H22" t="n">
         <v>48.3</v>
       </c>
       <c r="I22" t="n">
-        <v>41.1</v>
+        <v>41.3</v>
       </c>
       <c r="J22" t="n">
         <v>86.3</v>
       </c>
       <c r="K22" t="n">
-        <v>0.476</v>
+        <v>0.478</v>
       </c>
       <c r="L22" t="n">
         <v>8.1</v>
@@ -4336,19 +4403,19 @@
         <v>23.2</v>
       </c>
       <c r="N22" t="n">
-        <v>0.349</v>
+        <v>0.35</v>
       </c>
       <c r="O22" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="P22" t="n">
         <v>25.1</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.784</v>
+        <v>0.787</v>
       </c>
       <c r="R22" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="S22" t="n">
         <v>35.6</v>
@@ -4357,7 +4424,7 @@
         <v>48.4</v>
       </c>
       <c r="U22" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="V22" t="n">
         <v>15.7</v>
@@ -4366,25 +4433,25 @@
         <v>7.3</v>
       </c>
       <c r="X22" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="Y22" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Z22" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="AA22" t="n">
         <v>20.1</v>
       </c>
       <c r="AB22" t="n">
-        <v>109.9</v>
+        <v>110.4</v>
       </c>
       <c r="AC22" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AD22" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE22" t="n">
         <v>3</v>
@@ -4396,7 +4463,7 @@
         <v>4</v>
       </c>
       <c r="AH22" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AI22" t="n">
         <v>2</v>
@@ -4414,28 +4481,28 @@
         <v>19</v>
       </c>
       <c r="AN22" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AO22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AP22" t="n">
         <v>8</v>
       </c>
       <c r="AQ22" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AR22" t="n">
         <v>1</v>
       </c>
       <c r="AS22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AT22" t="n">
         <v>1</v>
       </c>
       <c r="AU22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV22" t="n">
         <v>26</v>
@@ -4444,13 +4511,13 @@
         <v>21</v>
       </c>
       <c r="AX22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ22" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BA22" t="n">
         <v>17</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-29-2015-16</t>
+          <t>2016-03-29</t>
         </is>
       </c>
     </row>
@@ -4491,58 +4558,58 @@
         <v>73</v>
       </c>
       <c r="E23" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F23" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G23" t="n">
-        <v>0.425</v>
+        <v>0.411</v>
       </c>
       <c r="H23" t="n">
         <v>48.6</v>
       </c>
       <c r="I23" t="n">
-        <v>39.2</v>
+        <v>38.9</v>
       </c>
       <c r="J23" t="n">
-        <v>86.59999999999999</v>
+        <v>86.8</v>
       </c>
       <c r="K23" t="n">
-        <v>0.453</v>
+        <v>0.449</v>
       </c>
       <c r="L23" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="M23" t="n">
-        <v>22.4</v>
+        <v>22.3</v>
       </c>
       <c r="N23" t="n">
-        <v>0.354</v>
+        <v>0.348</v>
       </c>
       <c r="O23" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="P23" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="Q23" t="n">
         <v>0.761</v>
       </c>
       <c r="R23" t="n">
-        <v>10.3</v>
+        <v>10.5</v>
       </c>
       <c r="S23" t="n">
-        <v>33.2</v>
+        <v>33.3</v>
       </c>
       <c r="T23" t="n">
-        <v>43.5</v>
+        <v>43.8</v>
       </c>
       <c r="U23" t="n">
-        <v>23.4</v>
+        <v>23.2</v>
       </c>
       <c r="V23" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="W23" t="n">
         <v>8.1</v>
@@ -4554,31 +4621,31 @@
         <v>5.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="AA23" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="AB23" t="n">
-        <v>101.6</v>
+        <v>100.9</v>
       </c>
       <c r="AC23" t="n">
-        <v>-1.8</v>
+        <v>-2.3</v>
       </c>
       <c r="AD23" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="AE23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF23" t="n">
         <v>20</v>
       </c>
       <c r="AG23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI23" t="n">
         <v>7</v>
@@ -4587,16 +4654,16 @@
         <v>5</v>
       </c>
       <c r="AK23" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AL23" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AM23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AN23" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AO23" t="n">
         <v>30</v>
@@ -4608,22 +4675,22 @@
         <v>16</v>
       </c>
       <c r="AR23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AS23" t="n">
         <v>16</v>
       </c>
-      <c r="AS23" t="n">
-        <v>17</v>
-      </c>
       <c r="AT23" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AU23" t="n">
         <v>7</v>
       </c>
       <c r="AV23" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AW23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AX23" t="n">
         <v>15</v>
@@ -4632,16 +4699,16 @@
         <v>23</v>
       </c>
       <c r="AZ23" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BA23" t="n">
         <v>29</v>
       </c>
       <c r="BB23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BC23" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-29-2015-16</t>
+          <t>2016-03-29</t>
         </is>
       </c>
     </row>
@@ -4685,46 +4752,46 @@
         <v>48.3</v>
       </c>
       <c r="I24" t="n">
-        <v>36.3</v>
+        <v>36.4</v>
       </c>
       <c r="J24" t="n">
-        <v>83.8</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="K24" t="n">
-        <v>0.433</v>
+        <v>0.435</v>
       </c>
       <c r="L24" t="n">
-        <v>8.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="M24" t="n">
-        <v>26.6</v>
+        <v>26.3</v>
       </c>
       <c r="N24" t="n">
-        <v>0.335</v>
+        <v>0.334</v>
       </c>
       <c r="O24" t="n">
-        <v>15.5</v>
+        <v>15.7</v>
       </c>
       <c r="P24" t="n">
-        <v>22.4</v>
+        <v>22.6</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.6929999999999999</v>
+        <v>0.694</v>
       </c>
       <c r="R24" t="n">
-        <v>9.4</v>
+        <v>9.5</v>
       </c>
       <c r="S24" t="n">
-        <v>31.9</v>
+        <v>31.8</v>
       </c>
       <c r="T24" t="n">
         <v>41.3</v>
       </c>
       <c r="U24" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="V24" t="n">
-        <v>16.6</v>
+        <v>16.8</v>
       </c>
       <c r="W24" t="n">
         <v>8.300000000000001</v>
@@ -4739,16 +4806,16 @@
         <v>21.9</v>
       </c>
       <c r="AA24" t="n">
-        <v>19.2</v>
+        <v>19.4</v>
       </c>
       <c r="AB24" t="n">
-        <v>97</v>
+        <v>97.2</v>
       </c>
       <c r="AC24" t="n">
-        <v>-10.4</v>
+        <v>-10.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE24" t="n">
         <v>30</v>
@@ -4760,37 +4827,37 @@
         <v>30</v>
       </c>
       <c r="AH24" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI24" t="n">
         <v>28</v>
       </c>
       <c r="AJ24" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AK24" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AL24" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM24" t="n">
         <v>10</v>
       </c>
-      <c r="AM24" t="n">
-        <v>9</v>
-      </c>
       <c r="AN24" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AO24" t="n">
         <v>29</v>
       </c>
       <c r="AP24" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ24" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AR24" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AS24" t="n">
         <v>26</v>
@@ -4799,7 +4866,7 @@
         <v>29</v>
       </c>
       <c r="AU24" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AV24" t="n">
         <v>29</v>
@@ -4814,10 +4881,10 @@
         <v>28</v>
       </c>
       <c r="AZ24" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BA24" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BB24" t="n">
         <v>30</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-29-2015-16</t>
+          <t>2016-03-29</t>
         </is>
       </c>
     </row>
@@ -4852,22 +4919,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E25" t="n">
         <v>20</v>
       </c>
       <c r="F25" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G25" t="n">
-        <v>0.274</v>
+        <v>0.27</v>
       </c>
       <c r="H25" t="n">
         <v>48.1</v>
       </c>
       <c r="I25" t="n">
-        <v>37.1</v>
+        <v>37</v>
       </c>
       <c r="J25" t="n">
         <v>85.2</v>
@@ -4882,28 +4949,28 @@
         <v>25.8</v>
       </c>
       <c r="N25" t="n">
-        <v>0.353</v>
+        <v>0.352</v>
       </c>
       <c r="O25" t="n">
         <v>17.4</v>
       </c>
       <c r="P25" t="n">
-        <v>23</v>
+        <v>23.2</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.754</v>
+        <v>0.751</v>
       </c>
       <c r="R25" t="n">
         <v>11.1</v>
       </c>
       <c r="S25" t="n">
-        <v>32.9</v>
+        <v>33</v>
       </c>
       <c r="T25" t="n">
-        <v>44</v>
+        <v>44.1</v>
       </c>
       <c r="U25" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="V25" t="n">
         <v>16.9</v>
@@ -4915,10 +4982,10 @@
         <v>3.8</v>
       </c>
       <c r="Y25" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Z25" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="AA25" t="n">
         <v>21.5</v>
@@ -4927,10 +4994,10 @@
         <v>100.6</v>
       </c>
       <c r="AC25" t="n">
-        <v>-7.1</v>
+        <v>-7.2</v>
       </c>
       <c r="AD25" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AE25" t="n">
         <v>28</v>
@@ -4951,7 +5018,7 @@
         <v>13</v>
       </c>
       <c r="AK25" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AL25" t="n">
         <v>9</v>
@@ -4960,13 +5027,13 @@
         <v>12</v>
       </c>
       <c r="AN25" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AO25" t="n">
         <v>17</v>
       </c>
       <c r="AP25" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AQ25" t="n">
         <v>19</v>
@@ -4978,7 +5045,7 @@
         <v>21</v>
       </c>
       <c r="AT25" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AU25" t="n">
         <v>25</v>
@@ -4993,13 +5060,13 @@
         <v>27</v>
       </c>
       <c r="AY25" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AZ25" t="n">
         <v>30</v>
       </c>
       <c r="BA25" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BB25" t="n">
         <v>22</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-29-2015-16</t>
+          <t>2016-03-29</t>
         </is>
       </c>
     </row>
@@ -5034,61 +5101,61 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E26" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F26" t="n">
         <v>36</v>
       </c>
       <c r="G26" t="n">
-        <v>0.514</v>
+        <v>0.52</v>
       </c>
       <c r="H26" t="n">
         <v>48.3</v>
       </c>
       <c r="I26" t="n">
-        <v>38.4</v>
+        <v>38.5</v>
       </c>
       <c r="J26" t="n">
-        <v>85.8</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="K26" t="n">
-        <v>0.447</v>
+        <v>0.448</v>
       </c>
       <c r="L26" t="n">
-        <v>10.4</v>
+        <v>10.5</v>
       </c>
       <c r="M26" t="n">
         <v>28.5</v>
       </c>
       <c r="N26" t="n">
-        <v>0.366</v>
+        <v>0.367</v>
       </c>
       <c r="O26" t="n">
-        <v>17.2</v>
+        <v>17.1</v>
       </c>
       <c r="P26" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.748</v>
+        <v>0.749</v>
       </c>
       <c r="R26" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="S26" t="n">
-        <v>34.1</v>
+        <v>34.2</v>
       </c>
       <c r="T26" t="n">
-        <v>45.6</v>
+        <v>45.7</v>
       </c>
       <c r="U26" t="n">
         <v>21.2</v>
       </c>
       <c r="V26" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="W26" t="n">
         <v>6.7</v>
@@ -5097,25 +5164,25 @@
         <v>4.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Z26" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="AA26" t="n">
         <v>19.4</v>
       </c>
       <c r="AB26" t="n">
-        <v>104.4</v>
+        <v>104.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="AD26" t="n">
         <v>1</v>
       </c>
       <c r="AE26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF26" t="n">
         <v>14</v>
@@ -5124,19 +5191,19 @@
         <v>14</v>
       </c>
       <c r="AH26" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AI26" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AJ26" t="n">
         <v>9</v>
       </c>
       <c r="AK26" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AM26" t="n">
         <v>5</v>
@@ -5145,16 +5212,16 @@
         <v>5</v>
       </c>
       <c r="AO26" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AP26" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AQ26" t="n">
         <v>22</v>
       </c>
       <c r="AR26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AS26" t="n">
         <v>7</v>
@@ -5163,7 +5230,7 @@
         <v>5</v>
       </c>
       <c r="AU26" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV26" t="n">
         <v>17</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-29-2015-16</t>
+          <t>2016-03-29</t>
         </is>
       </c>
     </row>
@@ -5216,16 +5283,16 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E27" t="n">
         <v>29</v>
       </c>
       <c r="F27" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G27" t="n">
-        <v>0.397</v>
+        <v>0.392</v>
       </c>
       <c r="H27" t="n">
         <v>48.3</v>
@@ -5234,28 +5301,28 @@
         <v>40</v>
       </c>
       <c r="J27" t="n">
-        <v>86.2</v>
+        <v>86.3</v>
       </c>
       <c r="K27" t="n">
         <v>0.464</v>
       </c>
       <c r="L27" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="M27" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="N27" t="n">
-        <v>0.355</v>
+        <v>0.357</v>
       </c>
       <c r="O27" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="P27" t="n">
-        <v>25.8</v>
+        <v>25.7</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.728</v>
+        <v>0.726</v>
       </c>
       <c r="R27" t="n">
         <v>10.5</v>
@@ -5279,31 +5346,31 @@
         <v>4.3</v>
       </c>
       <c r="Y27" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Z27" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="AA27" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="AB27" t="n">
         <v>106.7</v>
       </c>
       <c r="AC27" t="n">
-        <v>-2.2</v>
+        <v>-2.3</v>
       </c>
       <c r="AD27" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AE27" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF27" t="n">
         <v>23</v>
       </c>
-      <c r="AF27" t="n">
-        <v>22</v>
-      </c>
       <c r="AG27" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AH27" t="n">
         <v>16</v>
@@ -5321,13 +5388,13 @@
         <v>19</v>
       </c>
       <c r="AM27" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AN27" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO27" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AP27" t="n">
         <v>5</v>
@@ -5339,10 +5406,10 @@
         <v>13</v>
       </c>
       <c r="AS27" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AT27" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AU27" t="n">
         <v>4</v>
@@ -5357,19 +5424,19 @@
         <v>22</v>
       </c>
       <c r="AY27" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AZ27" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BB27" t="n">
         <v>3</v>
       </c>
       <c r="BC27" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-29-2015-16</t>
+          <t>2016-03-29</t>
         </is>
       </c>
     </row>
@@ -5398,25 +5465,25 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E28" t="n">
         <v>62</v>
       </c>
       <c r="F28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G28" t="n">
-        <v>0.849</v>
+        <v>0.838</v>
       </c>
       <c r="H28" t="n">
         <v>48</v>
       </c>
       <c r="I28" t="n">
-        <v>40.5</v>
+        <v>40.6</v>
       </c>
       <c r="J28" t="n">
-        <v>83.09999999999999</v>
+        <v>83.2</v>
       </c>
       <c r="K28" t="n">
         <v>0.488</v>
@@ -5431,22 +5498,22 @@
         <v>0.381</v>
       </c>
       <c r="O28" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="P28" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.803</v>
+        <v>0.804</v>
       </c>
       <c r="R28" t="n">
         <v>9.4</v>
       </c>
       <c r="S28" t="n">
-        <v>34.9</v>
+        <v>34.8</v>
       </c>
       <c r="T28" t="n">
-        <v>44.3</v>
+        <v>44.2</v>
       </c>
       <c r="U28" t="n">
         <v>24.8</v>
@@ -5458,7 +5525,7 @@
         <v>8.1</v>
       </c>
       <c r="X28" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="Y28" t="n">
         <v>3.9</v>
@@ -5473,10 +5540,10 @@
         <v>104.3</v>
       </c>
       <c r="AC28" t="n">
-        <v>12</v>
+        <v>11.7</v>
       </c>
       <c r="AD28" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AE28" t="n">
         <v>2</v>
@@ -5518,13 +5585,13 @@
         <v>2</v>
       </c>
       <c r="AR28" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AS28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AT28" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AU28" t="n">
         <v>3</v>
@@ -5533,7 +5600,7 @@
         <v>6</v>
       </c>
       <c r="AW28" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AX28" t="n">
         <v>5</v>
@@ -5545,7 +5612,7 @@
         <v>1</v>
       </c>
       <c r="BA28" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BB28" t="n">
         <v>8</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-29-2015-16</t>
+          <t>2016-03-29</t>
         </is>
       </c>
     </row>
@@ -5580,16 +5647,16 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E29" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F29" t="n">
         <v>24</v>
       </c>
       <c r="G29" t="n">
-        <v>0.667</v>
+        <v>0.671</v>
       </c>
       <c r="H29" t="n">
         <v>48.3</v>
@@ -5613,28 +5680,28 @@
         <v>0.368</v>
       </c>
       <c r="O29" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="P29" t="n">
-        <v>27</v>
+        <v>27.1</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.781</v>
+        <v>0.779</v>
       </c>
       <c r="R29" t="n">
         <v>10.3</v>
       </c>
       <c r="S29" t="n">
-        <v>33</v>
+        <v>33.1</v>
       </c>
       <c r="T29" t="n">
-        <v>43.3</v>
+        <v>43.4</v>
       </c>
       <c r="U29" t="n">
         <v>18.5</v>
       </c>
       <c r="V29" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="W29" t="n">
         <v>7.8</v>
@@ -5643,22 +5710,22 @@
         <v>5.4</v>
       </c>
       <c r="Y29" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Z29" t="n">
         <v>19.8</v>
       </c>
       <c r="AA29" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="AB29" t="n">
-        <v>102.8</v>
+        <v>102.9</v>
       </c>
       <c r="AC29" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="AD29" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="AE29" t="n">
         <v>5</v>
@@ -5670,7 +5737,7 @@
         <v>5</v>
       </c>
       <c r="AH29" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI29" t="n">
         <v>27</v>
@@ -5679,7 +5746,7 @@
         <v>27</v>
       </c>
       <c r="AK29" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL29" t="n">
         <v>14</v>
@@ -5688,7 +5755,7 @@
         <v>18</v>
       </c>
       <c r="AN29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO29" t="n">
         <v>2</v>
@@ -5706,7 +5773,7 @@
         <v>20</v>
       </c>
       <c r="AT29" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AU29" t="n">
         <v>29</v>
@@ -5721,16 +5788,16 @@
         <v>11</v>
       </c>
       <c r="AY29" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AZ29" t="n">
         <v>9</v>
       </c>
       <c r="BA29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BB29" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BC29" t="n">
         <v>5</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-29-2015-16</t>
+          <t>2016-03-29</t>
         </is>
       </c>
     </row>
@@ -5762,16 +5829,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E30" t="n">
         <v>37</v>
       </c>
       <c r="F30" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G30" t="n">
-        <v>0.507</v>
+        <v>0.5</v>
       </c>
       <c r="H30" t="n">
         <v>48.6</v>
@@ -5780,43 +5847,43 @@
         <v>36</v>
       </c>
       <c r="J30" t="n">
-        <v>80.59999999999999</v>
+        <v>80.5</v>
       </c>
       <c r="K30" t="n">
         <v>0.447</v>
       </c>
       <c r="L30" t="n">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="M30" t="n">
-        <v>23.6</v>
+        <v>23.4</v>
       </c>
       <c r="N30" t="n">
-        <v>0.36</v>
+        <v>0.358</v>
       </c>
       <c r="O30" t="n">
-        <v>17.5</v>
+        <v>17.4</v>
       </c>
       <c r="P30" t="n">
         <v>23.2</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.752</v>
+        <v>0.751</v>
       </c>
       <c r="R30" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="S30" t="n">
         <v>32.3</v>
       </c>
       <c r="T30" t="n">
-        <v>43.4</v>
+        <v>43.3</v>
       </c>
       <c r="U30" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="V30" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="W30" t="n">
         <v>7.7</v>
@@ -5828,31 +5895,31 @@
         <v>4.8</v>
       </c>
       <c r="Z30" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="AA30" t="n">
         <v>20</v>
       </c>
       <c r="AB30" t="n">
-        <v>98</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="AC30" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="AD30" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AE30" t="n">
         <v>15</v>
       </c>
       <c r="AF30" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG30" t="n">
         <v>15</v>
       </c>
       <c r="AH30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI30" t="n">
         <v>29</v>
@@ -5861,10 +5928,10 @@
         <v>30</v>
       </c>
       <c r="AK30" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL30" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AM30" t="n">
         <v>16</v>
@@ -5873,7 +5940,7 @@
         <v>9</v>
       </c>
       <c r="AO30" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AP30" t="n">
         <v>13</v>
@@ -5888,7 +5955,7 @@
         <v>23</v>
       </c>
       <c r="AT30" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AU30" t="n">
         <v>28</v>
@@ -5897,7 +5964,7 @@
         <v>24</v>
       </c>
       <c r="AW30" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AX30" t="n">
         <v>13</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-29-2015-16</t>
+          <t>2016-03-29</t>
         </is>
       </c>
     </row>
@@ -5947,13 +6014,13 @@
         <v>73</v>
       </c>
       <c r="E31" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F31" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G31" t="n">
-        <v>0.479</v>
+        <v>0.493</v>
       </c>
       <c r="H31" t="n">
         <v>48.2</v>
@@ -5968,10 +6035,10 @@
         <v>0.459</v>
       </c>
       <c r="L31" t="n">
-        <v>8.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="M31" t="n">
-        <v>24</v>
+        <v>24.1</v>
       </c>
       <c r="N31" t="n">
         <v>0.36</v>
@@ -5980,37 +6047,37 @@
         <v>16.4</v>
       </c>
       <c r="P31" t="n">
-        <v>22.4</v>
+        <v>22.3</v>
       </c>
       <c r="Q31" t="n">
         <v>0.733</v>
       </c>
       <c r="R31" t="n">
-        <v>8.800000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="S31" t="n">
-        <v>32.5</v>
+        <v>32.4</v>
       </c>
       <c r="T31" t="n">
         <v>41.2</v>
       </c>
       <c r="U31" t="n">
-        <v>24.3</v>
+        <v>24.1</v>
       </c>
       <c r="V31" t="n">
         <v>14.4</v>
       </c>
       <c r="W31" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="X31" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="Y31" t="n">
         <v>4.3</v>
       </c>
       <c r="Z31" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="AA31" t="n">
         <v>20.2</v>
@@ -6019,19 +6086,19 @@
         <v>103.5</v>
       </c>
       <c r="AC31" t="n">
-        <v>-1</v>
+        <v>-0.9</v>
       </c>
       <c r="AD31" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="AE31" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF31" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AG31" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AH31" t="n">
         <v>26</v>
@@ -6052,13 +6119,13 @@
         <v>14</v>
       </c>
       <c r="AN31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO31" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP31" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AQ31" t="n">
         <v>25</v>
@@ -6088,10 +6155,10 @@
         <v>7</v>
       </c>
       <c r="AZ31" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BA31" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-29-2015-16</t>
+          <t>2016-03-29</t>
         </is>
       </c>
     </row>
